--- a/VersionRecords/Version 5.1.9.1 20161223/版本Bug和特性计划及评审表v5.1.9.1_极光组.xlsx
+++ b/VersionRecords/Version 5.1.9.1 20161223/版本Bug和特性计划及评审表v5.1.9.1_极光组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -277,6 +277,16 @@
   </si>
   <si>
     <t>极光组</t>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
   </si>
 </sst>
 </file>
@@ -1465,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1598,10 +1608,18 @@
       <c r="M2" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="47"/>
+      <c r="N2" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>79</v>
+      </c>
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
       <c r="T2" s="52"/>
